--- a/Income/AJG_inc.xlsx
+++ b/Income/AJG_inc.xlsx
@@ -631,7 +631,7 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
-        <v>1132300000.0</v>
+        <v>1117300000.0</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>1067300000.0</v>
@@ -758,7 +758,7 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>-7100000.0</v>
+        <v>7900000.0</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>-33000000.0</v>
@@ -1648,10 +1648,8 @@
           <t>Gross Margin</t>
         </is>
       </c>
-      <c r="B13" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B13" s="0" t="n">
+        <v>0.3824</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0.3874</v>
@@ -1777,10 +1775,8 @@
           <t>EBIT Margin</t>
         </is>
       </c>
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B14" s="0" t="n">
+        <v>0.1575</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0.1557</v>
@@ -1906,10 +1902,8 @@
           <t>EBT margin</t>
         </is>
       </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B15" s="0" t="n">
+        <v>0.1285</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0.1272</v>
@@ -2035,10 +2029,8 @@
           <t>Net Profit Margin</t>
         </is>
       </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B16" s="0" t="n">
+        <v>0.1189</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0.1195</v>
@@ -2164,10 +2156,8 @@
           <t>Free Cash Flow Margin</t>
         </is>
       </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B17" s="0" t="n">
+        <v>0.0</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0.2412</v>
@@ -2293,10 +2283,8 @@
           <t>EBITDA</t>
         </is>
       </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B18" s="0" t="n">
+        <v>1650599900.0</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>1629699900.0</v>
@@ -2423,7 +2411,7 @@
         </is>
       </c>
       <c r="B19" s="0" t="n">
-        <v>1132300400.0</v>
+        <v>1117300400.0</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>1067300400.0</v>
@@ -2550,7 +2538,7 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
-        <v>4.5386</v>
+        <v>4.5384</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>4.4005</v>
@@ -2677,7 +2665,7 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>4.6319</v>
+        <v>4.6323</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>4.4926</v>
@@ -2804,7 +2792,7 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>4.6319</v>
+        <v>4.6323</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>4.4926</v>
@@ -3184,10 +3172,8 @@
           <t>EBITDA Margin</t>
         </is>
       </c>
-      <c r="B25" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B25" s="0" t="n">
+        <v>0.0</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>0.2378</v>
@@ -3313,10 +3299,8 @@
           <t>Operating Cash Flow Margin</t>
         </is>
       </c>
-      <c r="B26" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B26" s="0" t="n">
+        <v>0.0</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>0.2557</v>
